--- a/bioSample/bioSample_159.xlsx
+++ b/bioSample/bioSample_159.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_159.xlsx
+++ b/bioSample/bioSample_159.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">30C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">37C.CO2</t>
@@ -205,7 +202,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,7 +280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -294,7 +291,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>15</v>
@@ -303,7 +300,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>90</v>
@@ -332,7 +329,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>90</v>
@@ -361,7 +358,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>90</v>

--- a/bioSample/bioSample_159.xlsx
+++ b/bioSample/bioSample_159.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8DA7F4-4570-FE48-BC55-CDC849762EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117B66A-EA63-4240-B9EC-369A40ADD1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>harvestDate</t>
   </si>
@@ -39,21 +39,12 @@
     <t>experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
     <t>strain</t>
   </si>
   <si>
     <t>genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>90minuteInduction</t>
   </si>
   <si>
-    <t>KN99alpha</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -88,6 +76,9 @@
   </si>
   <si>
     <t>37C.CO2.CHX</t>
+  </si>
+  <si>
+    <t>TDY451</t>
   </si>
 </sst>
 </file>
@@ -465,21 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="1022" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,129 +497,120 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="L2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="L3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="L4">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="L5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>

--- a/bioSample/bioSample_159.xlsx
+++ b/bioSample/bioSample_159.xlsx
@@ -1,37 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1592A36-46B6-9445-849F-5EA74AAFB294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+  <si>
+    <t>harvestDate</t>
+  </si>
+  <si>
+    <t>harvester</t>
+  </si>
+  <si>
+    <t>bioSampleNumber</t>
+  </si>
+  <si>
+    <t>experimentDesign</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>genotype1</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>timePoint</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t>05.25.10</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
+  </si>
+  <si>
+    <t>90minuteInduction</t>
+  </si>
+  <si>
+    <t>TDY451</t>
+  </si>
+  <si>
+    <t>CNAG_00000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CHX</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>YPD</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +127,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,261 +451,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>harvestDate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>harvester</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bioSampleNumber</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>experimentDesign</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>strain</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>genotype1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>atmosphere</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>timePoint</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>replicate</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05.25.10</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05.25.10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
         <v>90</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05.25.10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
         <v>90</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05.25.10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S.GISH</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90minuteInduction</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TDY451</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CNAG_00000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CHX</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
         <v>90</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>